--- a/dataset/模型汇总.xlsx
+++ b/dataset/模型汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CNN_A00 (CNN-w2v)" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,26 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>CNN_A00 (CNN-w2v)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>类模型</t>
-    </r>
+    <t>CNN_A00 (CNN-w2v)类模型</t>
   </si>
   <si>
     <t>出处</t>
@@ -147,6 +128,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>中 </t>
     </r>
@@ -156,6 +138,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>64</t>
     </r>
@@ -168,10 +151,11 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>L2 constraints： </t>
+      <t>L2 constraints</t>
     </r>
     <r>
       <rPr>
@@ -179,34 +163,9 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>Pre-trained Word Vectors</t>
-  </si>
-  <si>
-    <t>GoogleNews 300dim</t>
-  </si>
-  <si>
-    <t>100 billion词汇</t>
-  </si>
-  <si>
-    <t>迭代25次</t>
-  </si>
-  <si>
-    <t>DCNN (Dynamic Convolutional Neural Network) 模型图</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nal Kalchbrenner，</t>
+      <t>： </t>
     </r>
     <r>
       <rPr>
@@ -214,6 +173,54 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Pre-trained Word Vectors</t>
+  </si>
+  <si>
+    <t>GoogleNews 300dim</t>
+  </si>
+  <si>
+    <t>100 billion词汇</t>
+  </si>
+  <si>
+    <t>迭代25次</t>
+  </si>
+  <si>
+    <t>DCNN (Dynamic Convolutional Neural Network) 模型图</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Nal Kalchbrenner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>ACL 2014</t>
     </r>
@@ -257,12 +264,13 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -283,15 +291,24 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -305,6 +322,7 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -354,11 +372,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,48 +385,56 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -429,15 +455,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
+      <xdr:colOff>142560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104760</xdr:colOff>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -450,8 +476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="115560" y="2028960"/>
-          <a:ext cx="8081640" cy="3150360"/>
+          <a:off x="142560" y="2019960"/>
+          <a:ext cx="7784640" cy="3150000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,15 +497,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>201240</xdr:rowOff>
+      <xdr:rowOff>192240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>494280</xdr:colOff>
+      <xdr:colOff>520920</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -492,8 +518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135000" y="201240"/>
-          <a:ext cx="5673960" cy="8007480"/>
+          <a:off x="162000" y="192240"/>
+          <a:ext cx="5045040" cy="8007120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -513,15 +539,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>161280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>735480</xdr:colOff>
+      <xdr:colOff>762120</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -534,8 +560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="134280" y="3170880"/>
-          <a:ext cx="4411080" cy="2036160"/>
+          <a:off x="161280" y="3161880"/>
+          <a:ext cx="4648680" cy="2035800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,15 +576,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -571,8 +597,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="5443560"/>
-          <a:ext cx="4655520" cy="4636440"/>
+          <a:off x="135000" y="5434560"/>
+          <a:ext cx="4940640" cy="4636080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,15 +613,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:colOff>135000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>53640</xdr:colOff>
+      <xdr:colOff>80280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -608,8 +634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="177840"/>
-          <a:ext cx="5279400" cy="2916360"/>
+          <a:off x="135000" y="168840"/>
+          <a:ext cx="5612400" cy="2916000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,15 +655,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:colOff>135000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>592200</xdr:colOff>
+      <xdr:colOff>618840</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -650,8 +676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="180720"/>
-          <a:ext cx="4294080" cy="4817520"/>
+          <a:off x="135000" y="171720"/>
+          <a:ext cx="4531680" cy="4817160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -671,15 +697,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>139680</xdr:colOff>
+      <xdr:colOff>166680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>671400</xdr:colOff>
+      <xdr:colOff>698040</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -692,8 +718,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="139680" y="218160"/>
-          <a:ext cx="5103720" cy="8342280"/>
+          <a:off x="166680" y="209160"/>
+          <a:ext cx="5388840" cy="8341920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,15 +734,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>436320</xdr:colOff>
+      <xdr:colOff>463320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>280440</xdr:colOff>
+      <xdr:colOff>307080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -729,8 +755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5770080" y="1879560"/>
-          <a:ext cx="9664560" cy="2369520"/>
+          <a:off x="6130440" y="1870560"/>
+          <a:ext cx="10297080" cy="2369160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -753,16 +779,20 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6558704453441"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,57 +807,60 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="L3" s="6" t="s">
+      <c r="E3" s="4"/>
+      <c r="L3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="7" t="n">
         <v>0.761</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0.762146415342542</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,7 +870,7 @@
       <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.81</v>
       </c>
       <c r="E6" s="9" t="n">
@@ -851,10 +884,10 @@
       <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.815</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="7" t="n">
         <v>0.817671</v>
       </c>
     </row>
@@ -868,7 +901,7 @@
       <c r="C8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="7" t="n">
         <v>0.811</v>
       </c>
     </row>
@@ -890,12 +923,12 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -931,7 +964,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="0" t="s">
@@ -939,14 +972,14 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -956,12 +989,12 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1001,37 +1034,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="12"/>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1067,42 +1102,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="86.0161943319838"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="L1" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1141,38 +1176,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="86.2793522267207"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1210,40 +1245,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="65.0202429149798"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="69.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>47</v>
       </c>
     </row>

--- a/dataset/模型汇总.xlsx
+++ b/dataset/模型汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CNN_A00 (CNN-w2v)" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>CNN_A00 (CNN-w2v)类模型</t>
   </si>
@@ -113,15 +113,6 @@
     <t>100 feature maps</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>input_lenght paper</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -130,7 +121,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>中 </t>
+      <t>input_lenght paper中 </t>
     </r>
     <r>
       <rPr>
@@ -153,7 +144,6 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>L2 constraints</t>
     </r>
@@ -191,6 +181,9 @@
     <t>迭代25次</t>
   </si>
   <si>
+    <t>mini-batch size of 50</t>
+  </si>
+  <si>
     <t>DCNN (Dynamic Convolutional Neural Network) 模型图</t>
   </si>
   <si>
@@ -200,7 +193,6 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Nal Kalchbrenner</t>
     </r>
@@ -376,7 +368,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -409,15 +401,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,15 +439,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142560</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:colOff>158040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -476,8 +460,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142560" y="2019960"/>
-          <a:ext cx="7784640" cy="3150000"/>
+          <a:off x="169560" y="2010960"/>
+          <a:ext cx="7798680" cy="3149640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -497,15 +481,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>192240</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>520920</xdr:colOff>
+      <xdr:colOff>547560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -518,8 +502,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="162000" y="192240"/>
-          <a:ext cx="5045040" cy="8007120"/>
+          <a:off x="189000" y="183240"/>
+          <a:ext cx="5044680" cy="8006760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -539,15 +523,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>188280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>762120</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:colOff>788760</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,8 +544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161280" y="3161880"/>
-          <a:ext cx="4648680" cy="2035800"/>
+          <a:off x="188280" y="3152880"/>
+          <a:ext cx="4648320" cy="2035440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -576,15 +560,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>218160</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:colOff>244800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -597,8 +581,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135000" y="5434560"/>
-          <a:ext cx="4940640" cy="4636080"/>
+          <a:off x="162000" y="5425560"/>
+          <a:ext cx="4940280" cy="4635720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,15 +597,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>80280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:colOff>106920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -634,8 +618,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135000" y="168840"/>
-          <a:ext cx="5612400" cy="2916000"/>
+          <a:off x="162000" y="159840"/>
+          <a:ext cx="5612040" cy="2915640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,15 +639,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
+      <xdr:colOff>645480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -676,8 +660,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135000" y="171720"/>
-          <a:ext cx="4531680" cy="4817160"/>
+          <a:off x="162000" y="162720"/>
+          <a:ext cx="4531320" cy="4816800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -697,15 +681,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>193680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>698040</xdr:colOff>
+      <xdr:colOff>724680</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -718,8 +702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="166680" y="209160"/>
-          <a:ext cx="5388840" cy="8341920"/>
+          <a:off x="193680" y="200160"/>
+          <a:ext cx="5388480" cy="8341560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,15 +718,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>463320</xdr:colOff>
+      <xdr:colOff>490320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>307080</xdr:colOff>
+      <xdr:colOff>333720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -755,8 +739,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6130440" y="1870560"/>
-          <a:ext cx="10297080" cy="2369160"/>
+          <a:off x="6157440" y="1861560"/>
+          <a:ext cx="10368720" cy="2368800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -776,22 +760,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6558704453441"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="11" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="62.1295546558704"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -859,7 +843,7 @@
       <c r="D5" s="7" t="n">
         <v>0.761</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="7" t="n">
         <v>0.762146415342542</v>
       </c>
     </row>
@@ -873,7 +857,7 @@
       <c r="D6" s="7" t="n">
         <v>0.81</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="8" t="n">
         <v>0.810823599243073</v>
       </c>
     </row>
@@ -972,14 +956,14 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -998,7 +982,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1035,13 +1023,13 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1054,7 +1042,7 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
+      <c r="A2" s="10"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1063,11 +1051,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1103,23 +1091,23 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="11" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="92.336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1134,11 +1122,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L3" s="11" t="s">
-        <v>40</v>
+      <c r="L3" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1177,19 +1165,19 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="8" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="86.2793522267207"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="87.0890688259109"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1205,10 +1193,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1246,21 +1234,21 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="69.246963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="69.8421052631579"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1276,10 +1264,10 @@
     </row>
     <row r="3" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
